--- a/st00.docs/html&css정리.20190615.xlsx
+++ b/st00.docs/html&css정리.20190615.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="5340" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="5340"/>
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="473">
   <si>
     <t>텍스트 태그</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2114,6 +2114,26 @@
   </si>
   <si>
     <t>alt="임의"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로 밑에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depth01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자식을 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depth01 이상을 모두포함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2769,6 +2789,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2781,26 +2810,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2817,25 +2870,10 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2847,32 +2885,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3720,10 +3740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3762,243 +3782,258 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>92</v>
+        <v>468</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+      <c r="B6" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B10" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="89" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B11" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="90"/>
-      <c r="B11" s="14" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="93"/>
+      <c r="B12" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="91"/>
-      <c r="B12" s="14" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="94"/>
+      <c r="B13" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="92" t="s">
+    <row r="14" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A14" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B14" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C14" s="38" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="66" x14ac:dyDescent="0.3">
-      <c r="A14" s="91"/>
-      <c r="B14" s="14" t="s">
+    <row r="15" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A15" s="94"/>
+      <c r="B15" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C15" s="38" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="99" x14ac:dyDescent="0.3">
-      <c r="A15" s="44" t="s">
+    <row r="16" spans="1:3" ht="99" x14ac:dyDescent="0.3">
+      <c r="A16" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B16" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C16" s="38" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B17" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+    <row r="18" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B18" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C18" s="38" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="92" t="s">
+    <row r="19" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B19" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C19" s="38" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="91"/>
-      <c r="B19" s="38" t="s">
+    <row r="20" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A20" s="94"/>
+      <c r="B20" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C20" s="38" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="92" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="95" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="91"/>
-      <c r="G21" s="45"/>
-    </row>
-    <row r="22" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22" s="89" t="s">
+      <c r="C22" s="94"/>
+      <c r="G22" s="45"/>
+    </row>
+    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A23" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B23" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C23" s="38" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="91"/>
-      <c r="B23" s="43" t="s">
+    <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24" s="94"/>
+      <c r="B24" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C24" s="38" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="92" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B25" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="90"/>
-      <c r="B25" s="14" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="93"/>
+      <c r="B26" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C26" s="14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="90"/>
-      <c r="B26" s="14" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="93"/>
+      <c r="B27" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C27" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="90"/>
-      <c r="B27" s="14" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="93"/>
+      <c r="B28" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C28" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="90"/>
-      <c r="B28" s="14" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="93"/>
+      <c r="B29" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="91"/>
-      <c r="B29" s="14" t="s">
-        <v>98</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>106</v>
       </c>
     </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="94"/>
+      <c r="B30" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4010,7 +4045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -4028,69 +4063,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="98" t="s">
         <v>439</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="118"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
     </row>
     <row r="4" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="97" t="s">
         <v>453</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
     </row>
     <row r="5" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="90" t="s">
         <v>438</v>
       </c>
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="90" t="s">
         <v>440</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="90" t="s">
         <v>441</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="90" t="s">
         <v>446</v>
       </c>
-      <c r="E5" s="119" t="s">
+      <c r="E5" s="90" t="s">
         <v>445</v>
       </c>
-      <c r="F5" s="119" t="s">
+      <c r="F5" s="90" t="s">
         <v>447</v>
       </c>
-      <c r="G5" s="119" t="s">
+      <c r="G5" s="90" t="s">
         <v>448</v>
       </c>
-      <c r="H5" s="119" t="s">
+      <c r="H5" s="90" t="s">
         <v>449</v>
       </c>
-      <c r="I5" s="119" t="s">
+      <c r="I5" s="90" t="s">
         <v>450</v>
       </c>
-      <c r="J5" s="119" t="s">
+      <c r="J5" s="90" t="s">
         <v>451</v>
       </c>
-      <c r="K5" s="119"/>
+      <c r="K5" s="90"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
@@ -4099,7 +4134,7 @@
       <c r="B6" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="91" t="s">
         <v>462</v>
       </c>
       <c r="D6" s="14" t="s">
@@ -4129,7 +4164,7 @@
       <c r="A7" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="91" t="s">
         <v>460</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -4141,7 +4176,7 @@
       <c r="G7" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="H7" s="123" t="s">
+      <c r="H7" s="91" t="s">
         <v>466</v>
       </c>
       <c r="I7" s="14" t="s">
@@ -4229,15 +4264,15 @@
       <c r="K11" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4340,13 +4375,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="105" t="s">
         <v>401</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="105" t="s">
         <v>203</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="99" t="s">
         <v>202</v>
       </c>
       <c r="D7" s="51" t="s">
@@ -4354,9 +4389,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="94"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="51" t="s">
         <v>384</v>
       </c>
@@ -4415,7 +4450,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="102" t="s">
         <v>200</v>
       </c>
       <c r="B14" s="78" t="s">
@@ -4429,7 +4464,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="96"/>
+      <c r="A15" s="103"/>
       <c r="B15" s="78" t="s">
         <v>403</v>
       </c>
@@ -4441,7 +4476,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="96"/>
+      <c r="A16" s="103"/>
       <c r="B16" s="51" t="s">
         <v>195</v>
       </c>
@@ -4453,7 +4488,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="96"/>
+      <c r="A17" s="103"/>
       <c r="B17" s="51" t="s">
         <v>192</v>
       </c>
@@ -4465,64 +4500,64 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="96"/>
-      <c r="B18" s="94" t="s">
+      <c r="A18" s="103"/>
+      <c r="B18" s="99" t="s">
         <v>189</v>
       </c>
       <c r="C18" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="94" t="s">
+      <c r="D18" s="99" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="96"/>
-      <c r="B19" s="94"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="D19" s="94"/>
+      <c r="D19" s="99"/>
     </row>
     <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="96"/>
-      <c r="B20" s="94" t="s">
+      <c r="A20" s="103"/>
+      <c r="B20" s="99" t="s">
         <v>185</v>
       </c>
       <c r="C20" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="99" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="96"/>
-      <c r="B21" s="94"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="D21" s="94"/>
+      <c r="D21" s="99"/>
     </row>
     <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="96"/>
-      <c r="B22" s="94" t="s">
+      <c r="A22" s="103"/>
+      <c r="B22" s="99" t="s">
         <v>181</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="D22" s="94" t="s">
+      <c r="D22" s="99" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="97"/>
-      <c r="B23" s="94"/>
+      <c r="A23" s="104"/>
+      <c r="B23" s="99"/>
       <c r="C23" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="94"/>
+      <c r="D23" s="99"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="60"/>
@@ -4613,25 +4648,25 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="94" t="s">
+      <c r="A34" s="99" t="s">
         <v>164</v>
       </c>
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="98" t="s">
+      <c r="C34" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="D34" s="99"/>
+      <c r="D34" s="101"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="94"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="99"/>
+      <c r="A35" s="99"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="101"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="94"/>
+      <c r="A36" s="99"/>
       <c r="B36" s="51" t="s">
         <v>161</v>
       </c>
@@ -4641,7 +4676,7 @@
       <c r="D36" s="53"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="94"/>
+      <c r="A37" s="99"/>
       <c r="B37" s="51" t="s">
         <v>159</v>
       </c>
@@ -4651,7 +4686,7 @@
       <c r="D37" s="53"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="94"/>
+      <c r="A38" s="99"/>
       <c r="B38" s="57" t="s">
         <v>157</v>
       </c>
@@ -4661,13 +4696,13 @@
       <c r="D38" s="53"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="94"/>
+      <c r="A39" s="99"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
       <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="94"/>
+      <c r="A40" s="99"/>
       <c r="B40" s="54" t="s">
         <v>155</v>
       </c>
@@ -4677,7 +4712,7 @@
       <c r="D40" s="53"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="94"/>
+      <c r="A41" s="99"/>
       <c r="B41" s="54" t="s">
         <v>154</v>
       </c>
@@ -4687,7 +4722,7 @@
       <c r="D41" s="53"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="94"/>
+      <c r="A42" s="99"/>
       <c r="B42" s="51" t="s">
         <v>390</v>
       </c>
@@ -4697,7 +4732,7 @@
       <c r="D42" s="53"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="94"/>
+      <c r="A43" s="99"/>
       <c r="B43" s="51" t="s">
         <v>153</v>
       </c>
@@ -4707,7 +4742,7 @@
       <c r="D43" s="53"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="94"/>
+      <c r="A44" s="99"/>
       <c r="B44" s="51" t="s">
         <v>151</v>
       </c>
@@ -4717,13 +4752,13 @@
       <c r="D44" s="53"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="94"/>
+      <c r="A45" s="99"/>
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
       <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="94"/>
+      <c r="A46" s="99"/>
       <c r="B46" s="54" t="s">
         <v>149</v>
       </c>
@@ -4735,7 +4770,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="94"/>
+      <c r="A47" s="99"/>
       <c r="B47" s="86" t="s">
         <v>147</v>
       </c>
@@ -4747,7 +4782,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="94"/>
+      <c r="A48" s="99"/>
       <c r="B48" s="54" t="s">
         <v>145</v>
       </c>
@@ -4757,7 +4792,7 @@
       <c r="D48" s="53"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="94"/>
+      <c r="A49" s="99"/>
       <c r="B49" s="54" t="s">
         <v>143</v>
       </c>
@@ -4781,7 +4816,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="95" t="s">
+      <c r="A53" s="102" t="s">
         <v>137</v>
       </c>
       <c r="B53" s="51" t="s">
@@ -4795,7 +4830,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="96"/>
+      <c r="A54" s="103"/>
       <c r="B54" s="85" t="s">
         <v>133</v>
       </c>
@@ -4807,7 +4842,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="96"/>
+      <c r="A55" s="103"/>
       <c r="B55" s="51" t="s">
         <v>131</v>
       </c>
@@ -4819,7 +4854,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="96"/>
+      <c r="A56" s="103"/>
       <c r="B56" s="51" t="s">
         <v>130</v>
       </c>
@@ -4831,7 +4866,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="97"/>
+      <c r="A57" s="104"/>
       <c r="B57" s="51" t="s">
         <v>128</v>
       </c>
@@ -4844,11 +4879,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A34:A49"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -4859,6 +4889,11 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A34:A49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4893,10 +4928,10 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="106" t="s">
         <v>379</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="109" t="s">
         <v>378</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -4911,7 +4946,7 @@
     </row>
     <row r="3" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="107"/>
-      <c r="B3" s="105"/>
+      <c r="B3" s="109"/>
       <c r="C3" s="18" t="s">
         <v>374</v>
       </c>
@@ -4924,7 +4959,7 @@
     </row>
     <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A4" s="107"/>
-      <c r="B4" s="105"/>
+      <c r="B4" s="109"/>
       <c r="C4" s="5" t="s">
         <v>371</v>
       </c>
@@ -4937,7 +4972,7 @@
     </row>
     <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A5" s="107"/>
-      <c r="B5" s="105"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="5" t="s">
         <v>368</v>
       </c>
@@ -4950,7 +4985,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="107"/>
-      <c r="B6" s="105"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="5" t="s">
         <v>365</v>
       </c>
@@ -4961,7 +4996,7 @@
     </row>
     <row r="7" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="107"/>
-      <c r="B7" s="105"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="72" t="s">
         <v>377</v>
       </c>
@@ -4974,7 +5009,7 @@
     </row>
     <row r="8" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="107"/>
-      <c r="B8" s="105"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="83" t="s">
         <v>10</v>
       </c>
@@ -4987,7 +5022,7 @@
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A9" s="107"/>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="109" t="s">
         <v>363</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -5004,7 +5039,7 @@
     </row>
     <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A10" s="107"/>
-      <c r="B10" s="105"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="80" t="s">
         <v>361</v>
       </c>
@@ -5019,7 +5054,7 @@
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A11" s="107"/>
-      <c r="B11" s="105"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="19" t="s">
         <v>359</v>
       </c>
@@ -5034,7 +5069,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="107"/>
-      <c r="B12" s="105"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="4" t="s">
         <v>357</v>
       </c>
@@ -5047,7 +5082,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="107"/>
-      <c r="B13" s="105"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
@@ -5060,7 +5095,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="107"/>
-      <c r="B14" s="105"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="19" t="s">
         <v>354</v>
       </c>
@@ -5075,7 +5110,7 @@
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="107"/>
-      <c r="B15" s="105"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="19" t="s">
         <v>11</v>
       </c>
@@ -5090,7 +5125,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="107"/>
-      <c r="B16" s="105"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="5" t="s">
         <v>352</v>
       </c>
@@ -5103,7 +5138,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="107"/>
-      <c r="B17" s="105"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="4" t="s">
         <v>350</v>
       </c>
@@ -5114,7 +5149,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="107"/>
-      <c r="B18" s="105"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="5" t="s">
         <v>348</v>
       </c>
@@ -5127,7 +5162,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="107"/>
-      <c r="B19" s="105"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="7" t="s">
         <v>343</v>
       </c>
@@ -5138,7 +5173,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="107"/>
-      <c r="B20" s="105"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="7" t="s">
         <v>342</v>
       </c>
@@ -5149,7 +5184,7 @@
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" s="107"/>
-      <c r="B21" s="105"/>
+      <c r="B21" s="109"/>
       <c r="C21" s="7" t="s">
         <v>12</v>
       </c>
@@ -5162,7 +5197,7 @@
     </row>
     <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A22" s="107"/>
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="109" t="s">
         <v>340</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -5177,7 +5212,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="107"/>
-      <c r="B23" s="105"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="5" t="s">
         <v>337</v>
       </c>
@@ -5190,7 +5225,7 @@
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" s="107"/>
-      <c r="B24" s="105"/>
+      <c r="B24" s="109"/>
       <c r="C24" s="5" t="s">
         <v>334</v>
       </c>
@@ -5203,7 +5238,7 @@
     </row>
     <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A25" s="108"/>
-      <c r="B25" s="105"/>
+      <c r="B25" s="109"/>
       <c r="C25" s="18" t="s">
         <v>331</v>
       </c>
@@ -5231,10 +5266,10 @@
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.3">
-      <c r="A28" s="109" t="s">
+      <c r="A28" s="110" t="s">
         <v>327</v>
       </c>
-      <c r="B28" s="109" t="s">
+      <c r="B28" s="110" t="s">
         <v>326</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -5248,8 +5283,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="120" x14ac:dyDescent="0.3">
-      <c r="A29" s="105"/>
-      <c r="B29" s="105"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="109"/>
       <c r="C29" s="5" t="s">
         <v>323</v>
       </c>
@@ -5261,8 +5296,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A30" s="105"/>
-      <c r="B30" s="105"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="109"/>
       <c r="C30" s="5" t="s">
         <v>321</v>
       </c>
@@ -5274,12 +5309,12 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="105"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="103" t="s">
+      <c r="A31" s="109"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="114" t="s">
         <v>319</v>
       </c>
-      <c r="D31" s="104" t="s">
+      <c r="D31" s="115" t="s">
         <v>318</v>
       </c>
       <c r="E31" s="18" t="s">
@@ -5287,17 +5322,17 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A32" s="105"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="104"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="115"/>
       <c r="E32" s="63" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="105"/>
-      <c r="B33" s="105"/>
+      <c r="A33" s="109"/>
+      <c r="B33" s="109"/>
       <c r="C33" s="5" t="s">
         <v>317</v>
       </c>
@@ -5307,8 +5342,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="105"/>
-      <c r="B34" s="105"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="109"/>
       <c r="C34" s="5" t="s">
         <v>315</v>
       </c>
@@ -5318,8 +5353,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="105"/>
-      <c r="B35" s="105"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="109"/>
       <c r="C35" s="5" t="s">
         <v>313</v>
       </c>
@@ -5329,8 +5364,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="105"/>
-      <c r="B36" s="105"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="109"/>
       <c r="C36" s="5" t="s">
         <v>311</v>
       </c>
@@ -5340,8 +5375,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="120" x14ac:dyDescent="0.3">
-      <c r="A37" s="105"/>
-      <c r="B37" s="105"/>
+      <c r="A37" s="109"/>
+      <c r="B37" s="109"/>
       <c r="C37" s="18" t="s">
         <v>309</v>
       </c>
@@ -5353,8 +5388,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="105"/>
-      <c r="B38" s="105"/>
+      <c r="A38" s="109"/>
+      <c r="B38" s="109"/>
       <c r="C38" s="5" t="s">
         <v>307</v>
       </c>
@@ -5364,8 +5399,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="105"/>
-      <c r="B39" s="105"/>
+      <c r="A39" s="109"/>
+      <c r="B39" s="109"/>
       <c r="C39" s="5" t="s">
         <v>305</v>
       </c>
@@ -5373,8 +5408,8 @@
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A40" s="105"/>
-      <c r="B40" s="105"/>
+      <c r="A40" s="109"/>
+      <c r="B40" s="109"/>
       <c r="C40" s="18" t="s">
         <v>304</v>
       </c>
@@ -5386,8 +5421,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A41" s="105"/>
-      <c r="B41" s="105"/>
+      <c r="A41" s="109"/>
+      <c r="B41" s="109"/>
       <c r="C41" s="18" t="s">
         <v>301</v>
       </c>
@@ -5399,8 +5434,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="105"/>
-      <c r="B42" s="105"/>
+      <c r="A42" s="109"/>
+      <c r="B42" s="109"/>
       <c r="C42" s="5" t="s">
         <v>298</v>
       </c>
@@ -5410,8 +5445,8 @@
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="105"/>
-      <c r="B43" s="109" t="s">
+      <c r="A43" s="109"/>
+      <c r="B43" s="110" t="s">
         <v>296</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -5423,8 +5458,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="105"/>
-      <c r="B44" s="105"/>
+      <c r="A44" s="109"/>
+      <c r="B44" s="109"/>
       <c r="C44" s="5" t="s">
         <v>293</v>
       </c>
@@ -5434,8 +5469,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="105"/>
-      <c r="B45" s="105"/>
+      <c r="A45" s="109"/>
+      <c r="B45" s="109"/>
       <c r="C45" s="5" t="s">
         <v>291</v>
       </c>
@@ -5445,8 +5480,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="105"/>
-      <c r="B46" s="105"/>
+      <c r="A46" s="109"/>
+      <c r="B46" s="109"/>
       <c r="C46" s="5" t="s">
         <v>289</v>
       </c>
@@ -5456,8 +5491,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A47" s="105"/>
-      <c r="B47" s="105"/>
+      <c r="A47" s="109"/>
+      <c r="B47" s="109"/>
       <c r="C47" s="16" t="s">
         <v>287</v>
       </c>
@@ -5467,8 +5502,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="105"/>
-      <c r="B48" s="109" t="s">
+      <c r="A48" s="109"/>
+      <c r="B48" s="110" t="s">
         <v>285</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -5480,8 +5515,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="105"/>
-      <c r="B49" s="105"/>
+      <c r="A49" s="109"/>
+      <c r="B49" s="109"/>
       <c r="C49" s="5" t="s">
         <v>7</v>
       </c>
@@ -5491,8 +5526,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="105"/>
-      <c r="B50" s="105"/>
+      <c r="A50" s="109"/>
+      <c r="B50" s="109"/>
       <c r="C50" s="5" t="s">
         <v>8</v>
       </c>
@@ -5502,8 +5537,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="105"/>
-      <c r="B51" s="105"/>
+      <c r="A51" s="109"/>
+      <c r="B51" s="109"/>
       <c r="C51" s="5" t="s">
         <v>9</v>
       </c>
@@ -5513,8 +5548,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A52" s="105"/>
-      <c r="B52" s="105"/>
+      <c r="A52" s="109"/>
+      <c r="B52" s="109"/>
       <c r="C52" s="16" t="s">
         <v>280</v>
       </c>
@@ -5524,8 +5559,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="105"/>
-      <c r="B53" s="105" t="s">
+      <c r="A53" s="109"/>
+      <c r="B53" s="109" t="s">
         <v>278</v>
       </c>
       <c r="C53" s="16" t="s">
@@ -5539,8 +5574,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="105"/>
-      <c r="B54" s="105"/>
+      <c r="A54" s="109"/>
+      <c r="B54" s="109"/>
       <c r="C54" s="16" t="s">
         <v>275</v>
       </c>
@@ -5552,8 +5587,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="105"/>
-      <c r="B55" s="105"/>
+      <c r="A55" s="109"/>
+      <c r="B55" s="109"/>
       <c r="C55" s="5" t="s">
         <v>272</v>
       </c>
@@ -5563,8 +5598,8 @@
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="105"/>
-      <c r="B56" s="105" t="s">
+      <c r="A56" s="109"/>
+      <c r="B56" s="109" t="s">
         <v>270</v>
       </c>
       <c r="C56" s="16" t="s">
@@ -5578,8 +5613,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="105"/>
-      <c r="B57" s="105"/>
+      <c r="A57" s="109"/>
+      <c r="B57" s="109"/>
       <c r="C57" s="16" t="s">
         <v>267</v>
       </c>
@@ -5591,8 +5626,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="105"/>
-      <c r="B58" s="105"/>
+      <c r="A58" s="109"/>
+      <c r="B58" s="109"/>
       <c r="C58" s="5" t="s">
         <v>264</v>
       </c>
@@ -5609,10 +5644,10 @@
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="105" x14ac:dyDescent="0.3">
-      <c r="A60" s="110" t="s">
+      <c r="A60" s="106" t="s">
         <v>262</v>
       </c>
-      <c r="B60" s="113" t="s">
+      <c r="B60" s="119" t="s">
         <v>261</v>
       </c>
       <c r="C60" s="18" t="s">
@@ -5626,8 +5661,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="111"/>
-      <c r="B61" s="114"/>
+      <c r="A61" s="117"/>
+      <c r="B61" s="120"/>
       <c r="C61" s="18" t="s">
         <v>405</v>
       </c>
@@ -5638,7 +5673,7 @@
     </row>
     <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A62" s="107"/>
-      <c r="B62" s="112" t="s">
+      <c r="B62" s="118" t="s">
         <v>258</v>
       </c>
       <c r="C62" s="18" t="s">
@@ -5653,7 +5688,7 @@
     </row>
     <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A63" s="107"/>
-      <c r="B63" s="112"/>
+      <c r="B63" s="118"/>
       <c r="C63" s="5" t="s">
         <v>254</v>
       </c>
@@ -5666,7 +5701,7 @@
     </row>
     <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A64" s="107"/>
-      <c r="B64" s="112"/>
+      <c r="B64" s="118"/>
       <c r="C64" s="32" t="s">
         <v>251</v>
       </c>
@@ -5679,7 +5714,7 @@
     </row>
     <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A65" s="107"/>
-      <c r="B65" s="112"/>
+      <c r="B65" s="118"/>
       <c r="C65" s="16" t="s">
         <v>248</v>
       </c>
@@ -5692,7 +5727,7 @@
     </row>
     <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A66" s="107"/>
-      <c r="B66" s="112"/>
+      <c r="B66" s="118"/>
       <c r="C66" s="32" t="s">
         <v>246</v>
       </c>
@@ -5705,7 +5740,7 @@
     </row>
     <row r="67" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A67" s="107"/>
-      <c r="B67" s="112"/>
+      <c r="B67" s="118"/>
       <c r="C67" s="5" t="s">
         <v>243</v>
       </c>
@@ -5718,7 +5753,7 @@
     </row>
     <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A68" s="107"/>
-      <c r="B68" s="112"/>
+      <c r="B68" s="118"/>
       <c r="C68" s="5" t="s">
         <v>241</v>
       </c>
@@ -5731,7 +5766,7 @@
     </row>
     <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A69" s="107"/>
-      <c r="B69" s="112"/>
+      <c r="B69" s="118"/>
       <c r="C69" s="32" t="s">
         <v>239</v>
       </c>
@@ -5744,7 +5779,7 @@
     </row>
     <row r="70" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="A70" s="108"/>
-      <c r="B70" s="112"/>
+      <c r="B70" s="118"/>
       <c r="C70" s="31" t="s">
         <v>420</v>
       </c>
@@ -5770,10 +5805,10 @@
       <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A73" s="100" t="s">
+      <c r="A73" s="111" t="s">
         <v>237</v>
       </c>
-      <c r="B73" s="106" t="s">
+      <c r="B73" s="116" t="s">
         <v>236</v>
       </c>
       <c r="C73" s="32" t="s">
@@ -5787,7 +5822,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="101"/>
+      <c r="A74" s="112"/>
       <c r="B74" s="107"/>
       <c r="C74" s="32" t="s">
         <v>231</v>
@@ -5798,7 +5833,7 @@
       <c r="E74" s="32"/>
     </row>
     <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A75" s="101"/>
+      <c r="A75" s="112"/>
       <c r="B75" s="107"/>
       <c r="C75" s="32" t="s">
         <v>235</v>
@@ -5809,7 +5844,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A76" s="101"/>
+      <c r="A76" s="112"/>
       <c r="B76" s="107"/>
       <c r="C76" s="32" t="s">
         <v>229</v>
@@ -5822,7 +5857,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A77" s="101"/>
+      <c r="A77" s="112"/>
       <c r="B77" s="107"/>
       <c r="C77" s="4" t="s">
         <v>227</v>
@@ -5835,7 +5870,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="101"/>
+      <c r="A78" s="112"/>
       <c r="B78" s="107"/>
       <c r="C78" s="4" t="s">
         <v>225</v>
@@ -5846,7 +5881,7 @@
       <c r="E78" s="5"/>
     </row>
     <row r="79" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A79" s="101"/>
+      <c r="A79" s="112"/>
       <c r="B79" s="107"/>
       <c r="C79" s="31" t="s">
         <v>223</v>
@@ -5859,7 +5894,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A80" s="101"/>
+      <c r="A80" s="112"/>
       <c r="B80" s="107"/>
       <c r="C80" s="32" t="s">
         <v>431</v>
@@ -5872,7 +5907,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="101"/>
+      <c r="A81" s="112"/>
       <c r="B81" s="107"/>
       <c r="C81" s="31" t="s">
         <v>221</v>
@@ -5883,7 +5918,7 @@
       <c r="E81" s="32"/>
     </row>
     <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A82" s="102"/>
+      <c r="A82" s="113"/>
       <c r="B82" s="108"/>
       <c r="C82" s="4" t="s">
         <v>219</v>
@@ -5897,13 +5932,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B28:B42"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="A28:A58"/>
     <mergeCell ref="A73:A82"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
@@ -5914,6 +5942,13 @@
     <mergeCell ref="A60:A70"/>
     <mergeCell ref="B62:B70"/>
     <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B28:B42"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="A28:A58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5949,7 +5984,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="123" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="48" t="s">
@@ -5960,7 +5995,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="115"/>
+      <c r="A3" s="123"/>
       <c r="B3" s="48" t="s">
         <v>21</v>
       </c>
@@ -5969,7 +6004,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="123" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="48" t="s">
@@ -5980,7 +6015,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="115"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="48" t="s">
         <v>27</v>
       </c>
@@ -5989,7 +6024,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="115"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="48" t="s">
         <v>29</v>
       </c>
@@ -5998,7 +6033,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="115"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="48" t="s">
         <v>24</v>
       </c>
@@ -6007,7 +6042,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="123" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -6018,7 +6053,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="115"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="48" t="s">
         <v>36</v>
       </c>
@@ -6027,7 +6062,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="115"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="48" t="s">
         <v>33</v>
       </c>
@@ -6036,25 +6071,25 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="121" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="121" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="117"/>
+      <c r="A12" s="122"/>
       <c r="B12" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="117"/>
+      <c r="C12" s="122"/>
     </row>
     <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="123" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="48" t="s">
@@ -6065,7 +6100,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="48" t="s">
         <v>46</v>
       </c>
@@ -6074,7 +6109,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="115"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="48" t="s">
         <v>48</v>
       </c>
@@ -6083,7 +6118,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="115"/>
+      <c r="A16" s="123"/>
       <c r="B16" s="48" t="s">
         <v>50</v>
       </c>
@@ -6092,7 +6127,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="115"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="48" t="s">
         <v>43</v>
       </c>
@@ -6101,7 +6136,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="115" t="s">
+      <c r="A18" s="123" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="48" t="s">
@@ -6112,7 +6147,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="115"/>
+      <c r="A19" s="123"/>
       <c r="B19" s="48" t="s">
         <v>44</v>
       </c>
@@ -6121,7 +6156,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="115"/>
+      <c r="A20" s="123"/>
       <c r="B20" s="48" t="s">
         <v>46</v>
       </c>
@@ -6130,7 +6165,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="115"/>
+      <c r="A21" s="123"/>
       <c r="B21" s="48" t="s">
         <v>48</v>
       </c>
@@ -6139,7 +6174,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="115"/>
+      <c r="A22" s="123"/>
       <c r="B22" s="48" t="s">
         <v>54</v>
       </c>
@@ -6148,7 +6183,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="115" t="s">
+      <c r="A23" s="123" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="48" t="s">
@@ -6159,42 +6194,42 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="115"/>
+      <c r="A24" s="123"/>
       <c r="B24" s="48" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="22"/>
     </row>
     <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="115"/>
+      <c r="A25" s="123"/>
       <c r="B25" s="48" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="22"/>
     </row>
     <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="115"/>
+      <c r="A26" s="123"/>
       <c r="B26" s="48" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="115"/>
+      <c r="A27" s="123"/>
       <c r="B27" s="48" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="22"/>
     </row>
     <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="115"/>
+      <c r="A28" s="123"/>
       <c r="B28" s="48" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="115" t="s">
+      <c r="A29" s="123" t="s">
         <v>63</v>
       </c>
       <c r="B29" s="48" t="s">
@@ -6203,35 +6238,35 @@
       <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="115"/>
+      <c r="A30" s="123"/>
       <c r="B30" s="48" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="115"/>
+      <c r="A31" s="123"/>
       <c r="B31" s="48" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="115"/>
+      <c r="A32" s="123"/>
       <c r="B32" s="48" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="22"/>
     </row>
     <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="115"/>
+      <c r="A33" s="123"/>
       <c r="B33" s="48" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="22"/>
     </row>
     <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="115"/>
+      <c r="A34" s="123"/>
       <c r="B34" s="48" t="s">
         <v>43</v>
       </c>
@@ -6249,7 +6284,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="115" t="s">
+      <c r="A36" s="123" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="48" t="s">
@@ -6260,7 +6295,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="115"/>
+      <c r="A37" s="123"/>
       <c r="B37" s="48" t="s">
         <v>72</v>
       </c>
@@ -6269,7 +6304,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="115"/>
+      <c r="A38" s="123"/>
       <c r="B38" s="48" t="s">
         <v>73</v>
       </c>
@@ -6279,16 +6314,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/st00.docs/html&css정리.20190615.xlsx
+++ b/st00.docs/html&css정리.20190615.xlsx
@@ -280,10 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>table/tr/td/th</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>img</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -417,10 +413,6 @@
   </si>
   <si>
     <t>br</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>줄 바꿈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2134,6 +2126,17 @@
   </si>
   <si>
     <t>depth01 이상을 모두포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 바꿈[p태그  안에서 주로 사용된다]
+태그사이의 줄 바꿈은? 1.div로 감싼다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table/tr/td/th
+thead/tbody/
+tfoot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2819,61 +2822,61 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2885,13 +2888,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -3743,7 +3746,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3755,76 +3758,76 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>89</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="41"/>
       <c r="C9" s="42"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3835,7 +3838,7 @@
         <v>77</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3844,27 +3847,27 @@
         <v>78</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="94"/>
       <c r="B13" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" s="95" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>79</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="66" x14ac:dyDescent="0.3">
@@ -3873,29 +3876,29 @@
         <v>80</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="99" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>81</v>
+      <c r="B16" s="38" t="s">
+        <v>472</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -3903,30 +3906,30 @@
         <v>2</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="95" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="94"/>
       <c r="B20" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3934,10 +3937,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="95" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3945,7 +3948,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="94"/>
       <c r="G22" s="45"/>
@@ -3955,75 +3958,75 @@
         <v>5</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="94"/>
       <c r="B24" s="43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="95" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="93"/>
       <c r="B26" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="93"/>
       <c r="B27" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="93"/>
       <c r="B28" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="93"/>
       <c r="B29" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="94"/>
       <c r="B30" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4064,7 +4067,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="98" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B2" s="98"/>
       <c r="C2" s="98"/>
@@ -4087,7 +4090,7 @@
     </row>
     <row r="4" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="97" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B4" s="97"/>
       <c r="C4" s="97"/>
@@ -4096,133 +4099,133 @@
     </row>
     <row r="5" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="90" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" s="90" t="s">
         <v>438</v>
       </c>
-      <c r="B5" s="90" t="s">
-        <v>440</v>
-      </c>
       <c r="C5" s="90" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D5" s="90" t="s">
+        <v>444</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>443</v>
+      </c>
+      <c r="F5" s="90" t="s">
+        <v>445</v>
+      </c>
+      <c r="G5" s="90" t="s">
         <v>446</v>
       </c>
-      <c r="E5" s="90" t="s">
-        <v>445</v>
-      </c>
-      <c r="F5" s="90" t="s">
+      <c r="H5" s="90" t="s">
         <v>447</v>
       </c>
-      <c r="G5" s="90" t="s">
+      <c r="I5" s="90" t="s">
         <v>448</v>
       </c>
-      <c r="H5" s="90" t="s">
+      <c r="J5" s="90" t="s">
         <v>449</v>
-      </c>
-      <c r="I5" s="90" t="s">
-        <v>450</v>
-      </c>
-      <c r="J5" s="90" t="s">
-        <v>451</v>
       </c>
       <c r="K5" s="90"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>460</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="F6" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="H6" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>465</v>
-      </c>
       <c r="I6" s="14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B7" s="91" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H7" s="91" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -4231,11 +4234,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -4248,11 +4251,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -4265,7 +4268,7 @@
     </row>
     <row r="13" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A13" s="96" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B13" s="96"/>
       <c r="C13" s="96"/>
@@ -4306,122 +4309,122 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="73" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B4" s="73" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="73" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="105" t="s">
-        <v>401</v>
-      </c>
-      <c r="B7" s="105" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="99" t="s">
-        <v>202</v>
+      <c r="A7" s="99" t="s">
+        <v>399</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>200</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="105"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="99"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="100"/>
       <c r="D8" s="51" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="81" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B9" s="81" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="81" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -4437,127 +4440,127 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="52" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="102" t="s">
-        <v>200</v>
+      <c r="A14" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="B14" s="78" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="103"/>
+      <c r="A15" s="102"/>
       <c r="B15" s="78" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="103"/>
+      <c r="A16" s="102"/>
       <c r="B16" s="51" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="103"/>
+      <c r="A17" s="102"/>
       <c r="B17" s="51" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="103"/>
-      <c r="B18" s="99" t="s">
-        <v>189</v>
+      <c r="A18" s="102"/>
+      <c r="B18" s="100" t="s">
+        <v>187</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="99" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+      <c r="D18" s="100" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="103"/>
-      <c r="B19" s="99"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="D19" s="99"/>
+        <v>184</v>
+      </c>
+      <c r="D19" s="100"/>
     </row>
     <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="103"/>
-      <c r="B20" s="99" t="s">
-        <v>185</v>
+      <c r="A20" s="102"/>
+      <c r="B20" s="100" t="s">
+        <v>183</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="D20" s="99" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="D20" s="100" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="103"/>
-      <c r="B21" s="99"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="D21" s="99"/>
+        <v>180</v>
+      </c>
+      <c r="D21" s="100"/>
     </row>
     <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="103"/>
-      <c r="B22" s="99" t="s">
-        <v>181</v>
+      <c r="A22" s="102"/>
+      <c r="B22" s="100" t="s">
+        <v>179</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="D22" s="99" t="s">
-        <v>179</v>
+        <v>178</v>
+      </c>
+      <c r="D22" s="100" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="104"/>
-      <c r="B23" s="99"/>
+      <c r="A23" s="103"/>
+      <c r="B23" s="100"/>
       <c r="C23" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="D23" s="99"/>
+        <v>176</v>
+      </c>
+      <c r="D23" s="100"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="60"/>
@@ -4573,312 +4576,317 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="52" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="73" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B27" s="73" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="73" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B28" s="73" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C29" s="53"/>
       <c r="D29" s="53"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="52" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="99" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" s="99" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" s="100" t="s">
+      <c r="A34" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="D34" s="101"/>
+      <c r="B34" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="104" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="105"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="99"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="101"/>
+      <c r="A35" s="100"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="105"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="99"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="51" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C36" s="57" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D36" s="53"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="99"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="51" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C37" s="57" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D37" s="53"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="99"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="57" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C38" s="56" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D38" s="53"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="99"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
       <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="99"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="54" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C40" s="77" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D40" s="53"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="99"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="54" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C41" s="77" t="s">
+        <v>385</v>
+      </c>
+      <c r="D41" s="53"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="100"/>
+      <c r="B42" s="51" t="s">
+        <v>388</v>
+      </c>
+      <c r="C42" s="77" t="s">
         <v>387</v>
       </c>
-      <c r="D41" s="53"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="99"/>
-      <c r="B42" s="51" t="s">
-        <v>390</v>
-      </c>
-      <c r="C42" s="77" t="s">
-        <v>389</v>
-      </c>
       <c r="D42" s="53"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="99"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C43" s="51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D43" s="53"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="99"/>
+      <c r="A44" s="100"/>
       <c r="B44" s="51" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D44" s="53"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="99"/>
+      <c r="A45" s="100"/>
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
       <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="99"/>
+      <c r="A46" s="100"/>
       <c r="B46" s="54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C46" s="51" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D46" s="51" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="99"/>
+      <c r="A47" s="100"/>
       <c r="B47" s="86" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C47" s="85" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="85" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="99"/>
+      <c r="A48" s="100"/>
       <c r="B48" s="54" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C48" s="51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="53"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="99"/>
+      <c r="A49" s="100"/>
       <c r="B49" s="54" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C49" s="51" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D49" s="53"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="52" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="102" t="s">
-        <v>137</v>
+      <c r="A53" s="101" t="s">
+        <v>135</v>
       </c>
       <c r="B53" s="51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C53" s="51" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D53" s="51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="103"/>
+      <c r="A54" s="102"/>
       <c r="B54" s="85" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C54" s="85" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D54" s="85" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="103"/>
+      <c r="A55" s="102"/>
       <c r="B55" s="51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D55" s="51" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="103"/>
+      <c r="A56" s="102"/>
       <c r="B56" s="51" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C56" s="51" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D56" s="51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="104"/>
+      <c r="A57" s="103"/>
       <c r="B57" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C57" s="51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D57" s="51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A34:A49"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -4889,11 +4897,6 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A34:A49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4928,325 +4931,325 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106" t="s">
-        <v>379</v>
-      </c>
-      <c r="B2" s="109" t="s">
-        <v>378</v>
+      <c r="A2" s="116" t="s">
+        <v>377</v>
+      </c>
+      <c r="B2" s="111" t="s">
+        <v>376</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D2" s="71" t="s">
+        <v>373</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="113"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>371</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A4" s="113"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="A5" s="113"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="113"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="113"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="72" t="s">
         <v>375</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="107"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>373</v>
-      </c>
-      <c r="E3" s="63" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A4" s="107"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A5" s="107"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="107"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="107"/>
-      <c r="B7" s="109"/>
-      <c r="C7" s="72" t="s">
-        <v>377</v>
-      </c>
       <c r="D7" s="70" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E7" s="88" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="107"/>
-      <c r="B8" s="109"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="83" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="84" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E8" s="87" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A9" s="107"/>
-      <c r="B9" s="109" t="s">
-        <v>363</v>
+      <c r="A9" s="113"/>
+      <c r="B9" s="111" t="s">
+        <v>361</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D9" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>411</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>413</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A10" s="107"/>
-      <c r="B10" s="109"/>
+      <c r="A10" s="113"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="80" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A11" s="107"/>
-      <c r="B11" s="109"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="107"/>
-      <c r="B12" s="109"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E12" s="4"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="107"/>
-      <c r="B13" s="109"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="107"/>
-      <c r="B14" s="109"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A15" s="107"/>
-      <c r="B15" s="109"/>
+      <c r="A15" s="113"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="69" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="107"/>
-      <c r="B16" s="109"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E16" s="5"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="107"/>
-      <c r="B17" s="109"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="107"/>
-      <c r="B18" s="109"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="107"/>
-      <c r="B19" s="109"/>
+      <c r="A19" s="113"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="107"/>
-      <c r="B20" s="109"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A21" s="107"/>
-      <c r="B21" s="109"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A22" s="107"/>
-      <c r="B22" s="109" t="s">
-        <v>340</v>
+      <c r="A22" s="113"/>
+      <c r="B22" s="111" t="s">
+        <v>338</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="107"/>
-      <c r="B23" s="109"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A24" s="107"/>
-      <c r="B24" s="109"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A25" s="108"/>
-      <c r="B25" s="109"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E25" s="63" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -5259,380 +5262,380 @@
     <row r="27" spans="1:5" ht="209.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="47"/>
       <c r="B27" s="47" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="26"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.3">
-      <c r="A28" s="110" t="s">
-        <v>327</v>
-      </c>
-      <c r="B28" s="110" t="s">
-        <v>326</v>
+      <c r="A28" s="115" t="s">
+        <v>325</v>
+      </c>
+      <c r="B28" s="115" t="s">
+        <v>324</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="120" x14ac:dyDescent="0.3">
-      <c r="A29" s="109"/>
-      <c r="B29" s="109"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A30" s="109"/>
-      <c r="B30" s="109"/>
+      <c r="A30" s="111"/>
+      <c r="B30" s="111"/>
       <c r="C30" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="109"/>
-      <c r="B31" s="109"/>
-      <c r="C31" s="114" t="s">
-        <v>319</v>
-      </c>
-      <c r="D31" s="115" t="s">
-        <v>318</v>
+      <c r="A31" s="111"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="109" t="s">
+        <v>317</v>
+      </c>
+      <c r="D31" s="110" t="s">
+        <v>316</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A32" s="109"/>
-      <c r="B32" s="109"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="115"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="110"/>
       <c r="E32" s="63" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="109"/>
-      <c r="B33" s="109"/>
+      <c r="A33" s="111"/>
+      <c r="B33" s="111"/>
       <c r="C33" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="109"/>
-      <c r="B34" s="109"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="111"/>
       <c r="C34" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="109"/>
-      <c r="B35" s="109"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="111"/>
       <c r="C35" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="109"/>
-      <c r="B36" s="109"/>
+      <c r="A36" s="111"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="120" x14ac:dyDescent="0.3">
-      <c r="A37" s="109"/>
-      <c r="B37" s="109"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="111"/>
       <c r="C37" s="18" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E37" s="63" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="109"/>
-      <c r="B38" s="109"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="111"/>
       <c r="C38" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="109"/>
-      <c r="B39" s="109"/>
+      <c r="A39" s="111"/>
+      <c r="B39" s="111"/>
       <c r="C39" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A40" s="109"/>
-      <c r="B40" s="109"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="111"/>
       <c r="C40" s="18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D40" s="64" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E40" s="63" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A41" s="109"/>
-      <c r="B41" s="109"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="111"/>
       <c r="C41" s="18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D41" s="64" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E41" s="63" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="109"/>
-      <c r="B42" s="109"/>
+      <c r="A42" s="111"/>
+      <c r="B42" s="111"/>
       <c r="C42" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="109"/>
-      <c r="B43" s="110" t="s">
-        <v>296</v>
+      <c r="A43" s="111"/>
+      <c r="B43" s="115" t="s">
+        <v>294</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="109"/>
-      <c r="B44" s="109"/>
+      <c r="A44" s="111"/>
+      <c r="B44" s="111"/>
       <c r="C44" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="109"/>
-      <c r="B45" s="109"/>
+      <c r="A45" s="111"/>
+      <c r="B45" s="111"/>
       <c r="C45" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="109"/>
-      <c r="B46" s="109"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="111"/>
       <c r="C46" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D46" s="26"/>
       <c r="E46" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A47" s="109"/>
-      <c r="B47" s="109"/>
+      <c r="A47" s="111"/>
+      <c r="B47" s="111"/>
       <c r="C47" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D47" s="37"/>
       <c r="E47" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="109"/>
-      <c r="B48" s="110" t="s">
-        <v>285</v>
+      <c r="A48" s="111"/>
+      <c r="B48" s="115" t="s">
+        <v>283</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="109"/>
-      <c r="B49" s="109"/>
+      <c r="A49" s="111"/>
+      <c r="B49" s="111"/>
       <c r="C49" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="26"/>
       <c r="E49" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="109"/>
-      <c r="B50" s="109"/>
+      <c r="A50" s="111"/>
+      <c r="B50" s="111"/>
       <c r="C50" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="26"/>
       <c r="E50" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="109"/>
-      <c r="B51" s="109"/>
+      <c r="A51" s="111"/>
+      <c r="B51" s="111"/>
       <c r="C51" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="26"/>
       <c r="E51" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A52" s="109"/>
-      <c r="B52" s="109"/>
+      <c r="A52" s="111"/>
+      <c r="B52" s="111"/>
       <c r="C52" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D52" s="37"/>
       <c r="E52" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="109"/>
-      <c r="B53" s="109" t="s">
-        <v>278</v>
+      <c r="A53" s="111"/>
+      <c r="B53" s="111" t="s">
+        <v>276</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="109"/>
-      <c r="B54" s="109"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="111"/>
       <c r="C54" s="16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="109"/>
-      <c r="B55" s="109"/>
+      <c r="A55" s="111"/>
+      <c r="B55" s="111"/>
       <c r="C55" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="109"/>
-      <c r="B56" s="109" t="s">
-        <v>270</v>
+      <c r="A56" s="111"/>
+      <c r="B56" s="111" t="s">
+        <v>268</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="109"/>
-      <c r="B57" s="109"/>
+      <c r="A57" s="111"/>
+      <c r="B57" s="111"/>
       <c r="C57" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="109"/>
-      <c r="B58" s="109"/>
+      <c r="A58" s="111"/>
+      <c r="B58" s="111"/>
       <c r="C58" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E58" s="5"/>
     </row>
@@ -5644,150 +5647,150 @@
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="105" x14ac:dyDescent="0.3">
-      <c r="A60" s="106" t="s">
-        <v>262</v>
+      <c r="A60" s="116" t="s">
+        <v>260</v>
       </c>
       <c r="B60" s="119" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="117"/>
       <c r="B61" s="120"/>
       <c r="C61" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="D61" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="D61" s="27" t="s">
-        <v>407</v>
-      </c>
       <c r="E61" s="20"/>
     </row>
     <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A62" s="107"/>
+      <c r="A62" s="113"/>
       <c r="B62" s="118" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A63" s="107"/>
+      <c r="A63" s="113"/>
       <c r="B63" s="118"/>
       <c r="C63" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A64" s="107"/>
+      <c r="A64" s="113"/>
       <c r="B64" s="118"/>
       <c r="C64" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A65" s="107"/>
+      <c r="A65" s="113"/>
       <c r="B65" s="118"/>
       <c r="C65" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D65" s="37" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A66" s="107"/>
+      <c r="A66" s="113"/>
       <c r="B66" s="118"/>
       <c r="C66" s="32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A67" s="107"/>
+      <c r="A67" s="113"/>
       <c r="B67" s="118"/>
       <c r="C67" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A68" s="107"/>
+      <c r="A68" s="113"/>
       <c r="B68" s="118"/>
       <c r="C68" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A69" s="107"/>
+      <c r="A69" s="113"/>
       <c r="B69" s="118"/>
       <c r="C69" s="32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D69" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="E69" s="34" t="s">
         <v>423</v>
       </c>
-      <c r="E69" s="34" t="s">
-        <v>425</v>
-      </c>
     </row>
     <row r="70" spans="1:5" ht="75" x14ac:dyDescent="0.3">
-      <c r="A70" s="108"/>
+      <c r="A70" s="114"/>
       <c r="B70" s="118"/>
       <c r="C70" s="31" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E70" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -5805,133 +5808,140 @@
       <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A73" s="111" t="s">
-        <v>237</v>
-      </c>
-      <c r="B73" s="116" t="s">
-        <v>236</v>
+      <c r="A73" s="106" t="s">
+        <v>235</v>
+      </c>
+      <c r="B73" s="112" t="s">
+        <v>234</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D73" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="E73" s="34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="107"/>
+      <c r="B74" s="113"/>
+      <c r="C74" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="E74" s="32"/>
+    </row>
+    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+      <c r="A75" s="107"/>
+      <c r="B75" s="113"/>
+      <c r="C75" s="32" t="s">
         <v>233</v>
-      </c>
-      <c r="E73" s="34" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="112"/>
-      <c r="B74" s="107"/>
-      <c r="C74" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="D74" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="E74" s="32"/>
-    </row>
-    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A75" s="112"/>
-      <c r="B75" s="107"/>
-      <c r="C75" s="32" t="s">
-        <v>235</v>
       </c>
       <c r="D75" s="33"/>
       <c r="E75" s="34" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="90" x14ac:dyDescent="0.3">
+      <c r="A76" s="107"/>
+      <c r="B76" s="113"/>
+      <c r="C76" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="E76" s="34" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+      <c r="A77" s="107"/>
+      <c r="B77" s="113"/>
+      <c r="C77" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="107"/>
+      <c r="B78" s="113"/>
+      <c r="C78" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:5" ht="60" x14ac:dyDescent="0.3">
+      <c r="A79" s="107"/>
+      <c r="B79" s="113"/>
+      <c r="C79" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+      <c r="A80" s="107"/>
+      <c r="B80" s="113"/>
+      <c r="C80" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="D80" s="33" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A76" s="112"/>
-      <c r="B76" s="107"/>
-      <c r="C76" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="D76" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="E76" s="34" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A77" s="112"/>
-      <c r="B77" s="107"/>
-      <c r="C77" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D77" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="112"/>
-      <c r="B78" s="107"/>
-      <c r="C78" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="E78" s="5"/>
-    </row>
-    <row r="79" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A79" s="112"/>
-      <c r="B79" s="107"/>
-      <c r="C79" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="D79" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="E79" s="34" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A80" s="112"/>
-      <c r="B80" s="107"/>
-      <c r="C80" s="32" t="s">
+      <c r="E80" s="34" t="s">
         <v>431</v>
       </c>
-      <c r="D80" s="33" t="s">
-        <v>432</v>
-      </c>
-      <c r="E80" s="34" t="s">
-        <v>433</v>
-      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="112"/>
-      <c r="B81" s="107"/>
+      <c r="A81" s="107"/>
+      <c r="B81" s="113"/>
       <c r="C81" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E81" s="32"/>
     </row>
     <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A82" s="113"/>
-      <c r="B82" s="108"/>
+      <c r="A82" s="108"/>
+      <c r="B82" s="114"/>
       <c r="C82" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B28:B42"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="A28:A58"/>
     <mergeCell ref="A73:A82"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
@@ -5942,13 +5952,6 @@
     <mergeCell ref="A60:A70"/>
     <mergeCell ref="B62:B70"/>
     <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B28:B42"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="A28:A58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5984,7 +5987,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="121" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="48" t="s">
@@ -5995,7 +5998,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="123"/>
+      <c r="A3" s="121"/>
       <c r="B3" s="48" t="s">
         <v>21</v>
       </c>
@@ -6004,7 +6007,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="121" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="48" t="s">
@@ -6015,7 +6018,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="123"/>
+      <c r="A5" s="121"/>
       <c r="B5" s="48" t="s">
         <v>27</v>
       </c>
@@ -6024,7 +6027,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="123"/>
+      <c r="A6" s="121"/>
       <c r="B6" s="48" t="s">
         <v>29</v>
       </c>
@@ -6033,7 +6036,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="123"/>
+      <c r="A7" s="121"/>
       <c r="B7" s="48" t="s">
         <v>24</v>
       </c>
@@ -6042,7 +6045,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="121" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -6053,7 +6056,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="123"/>
+      <c r="A9" s="121"/>
       <c r="B9" s="48" t="s">
         <v>36</v>
       </c>
@@ -6062,7 +6065,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="123"/>
+      <c r="A10" s="121"/>
       <c r="B10" s="48" t="s">
         <v>33</v>
       </c>
@@ -6071,25 +6074,25 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="121" t="s">
+      <c r="C11" s="122" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="122"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="122"/>
+      <c r="C12" s="123"/>
     </row>
     <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="121" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="48" t="s">
@@ -6100,7 +6103,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="123"/>
+      <c r="A14" s="121"/>
       <c r="B14" s="48" t="s">
         <v>46</v>
       </c>
@@ -6109,7 +6112,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="123"/>
+      <c r="A15" s="121"/>
       <c r="B15" s="48" t="s">
         <v>48</v>
       </c>
@@ -6118,7 +6121,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="123"/>
+      <c r="A16" s="121"/>
       <c r="B16" s="48" t="s">
         <v>50</v>
       </c>
@@ -6127,7 +6130,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="123"/>
+      <c r="A17" s="121"/>
       <c r="B17" s="48" t="s">
         <v>43</v>
       </c>
@@ -6136,7 +6139,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="123" t="s">
+      <c r="A18" s="121" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="48" t="s">
@@ -6147,7 +6150,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="123"/>
+      <c r="A19" s="121"/>
       <c r="B19" s="48" t="s">
         <v>44</v>
       </c>
@@ -6156,7 +6159,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="123"/>
+      <c r="A20" s="121"/>
       <c r="B20" s="48" t="s">
         <v>46</v>
       </c>
@@ -6165,7 +6168,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="123"/>
+      <c r="A21" s="121"/>
       <c r="B21" s="48" t="s">
         <v>48</v>
       </c>
@@ -6174,7 +6177,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="123"/>
+      <c r="A22" s="121"/>
       <c r="B22" s="48" t="s">
         <v>54</v>
       </c>
@@ -6183,7 +6186,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="123" t="s">
+      <c r="A23" s="121" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="48" t="s">
@@ -6194,42 +6197,42 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="123"/>
+      <c r="A24" s="121"/>
       <c r="B24" s="48" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="22"/>
     </row>
     <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="123"/>
+      <c r="A25" s="121"/>
       <c r="B25" s="48" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="22"/>
     </row>
     <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="123"/>
+      <c r="A26" s="121"/>
       <c r="B26" s="48" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="123"/>
+      <c r="A27" s="121"/>
       <c r="B27" s="48" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="22"/>
     </row>
     <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="123"/>
+      <c r="A28" s="121"/>
       <c r="B28" s="48" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="123" t="s">
+      <c r="A29" s="121" t="s">
         <v>63</v>
       </c>
       <c r="B29" s="48" t="s">
@@ -6238,35 +6241,35 @@
       <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="123"/>
+      <c r="A30" s="121"/>
       <c r="B30" s="48" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="123"/>
+      <c r="A31" s="121"/>
       <c r="B31" s="48" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="123"/>
+      <c r="A32" s="121"/>
       <c r="B32" s="48" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="22"/>
     </row>
     <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="123"/>
+      <c r="A33" s="121"/>
       <c r="B33" s="48" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="22"/>
     </row>
     <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="123"/>
+      <c r="A34" s="121"/>
       <c r="B34" s="48" t="s">
         <v>43</v>
       </c>
@@ -6277,14 +6280,14 @@
         <v>64</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C35" s="48" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="123" t="s">
+      <c r="A36" s="121" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="48" t="s">
@@ -6295,7 +6298,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="123"/>
+      <c r="A37" s="121"/>
       <c r="B37" s="48" t="s">
         <v>72</v>
       </c>
@@ -6304,7 +6307,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="123"/>
+      <c r="A38" s="121"/>
       <c r="B38" s="48" t="s">
         <v>73</v>
       </c>
@@ -6314,16 +6317,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A28"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/st00.docs/html&css정리.20190615.xlsx
+++ b/st00.docs/html&css정리.20190615.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="5340"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="5340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="1" r:id="rId1"/>
@@ -697,9 +697,6 @@
     </r>
   </si>
   <si>
-    <t>선택자[속성|=값]</t>
-  </si>
-  <si>
     <t>기준: 하이픈 제외한 단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -732,9 +729,6 @@
     </r>
   </si>
   <si>
-    <t>선택자[속성~=값]</t>
-  </si>
-  <si>
     <t>기준: 문자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -745,25 +739,16 @@
     <t>contains, "값"에 해당되는 문자가 있으면.</t>
   </si>
   <si>
-    <t>선택자[속성*=값]</t>
-  </si>
-  <si>
     <t>p[name$="row"]</t>
   </si>
   <si>
     <t>end with, "값"으로 끝날 때</t>
   </si>
   <si>
-    <t>선택자[속성$=값]</t>
-  </si>
-  <si>
     <t>p[name^="row"]</t>
   </si>
   <si>
     <t>start with. "값"으로 시작할 때</t>
-  </si>
-  <si>
-    <t>선택자[속성^=값]</t>
   </si>
   <si>
     <t>p[name="row"]</t>
@@ -1656,38 +1641,6 @@
   <si>
     <t>속성 선택자</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>선택자[속성</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>선택자[속성=값</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>]</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2137,6 +2090,60 @@
     <t>table/tr/td/th
 thead/tbody/
 tfoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>태그[속성</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕코딩"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>태그[속성=값</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕코딩"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그[속성^=값]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그[속성$=값]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그[속성*=값]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그[속성~=값]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그[속성|=값]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2822,26 +2829,41 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2858,25 +2880,10 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2888,13 +2895,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -3745,7 +3752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -3785,7 +3792,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -3795,10 +3802,10 @@
         <v>91</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3806,10 +3813,10 @@
         <v>92</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3856,7 +3863,7 @@
         <v>113</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="66" x14ac:dyDescent="0.3">
@@ -3867,7 +3874,7 @@
         <v>79</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="66" x14ac:dyDescent="0.3">
@@ -3876,7 +3883,7 @@
         <v>80</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="99" x14ac:dyDescent="0.3">
@@ -3884,10 +3891,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -3940,7 +3947,7 @@
         <v>84</v>
       </c>
       <c r="C21" s="95" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4067,7 +4074,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="98" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B2" s="98"/>
       <c r="C2" s="98"/>
@@ -4090,7 +4097,7 @@
     </row>
     <row r="4" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="97" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B4" s="97"/>
       <c r="C4" s="97"/>
@@ -4099,133 +4106,133 @@
     </row>
     <row r="5" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="90" t="s">
+        <v>429</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>431</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>432</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>437</v>
+      </c>
+      <c r="E5" s="90" t="s">
         <v>436</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="F5" s="90" t="s">
         <v>438</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="G5" s="90" t="s">
         <v>439</v>
       </c>
-      <c r="D5" s="90" t="s">
-        <v>444</v>
-      </c>
-      <c r="E5" s="90" t="s">
-        <v>443</v>
-      </c>
-      <c r="F5" s="90" t="s">
-        <v>445</v>
-      </c>
-      <c r="G5" s="90" t="s">
-        <v>446</v>
-      </c>
       <c r="H5" s="90" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="I5" s="90" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="J5" s="90" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="K5" s="90"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>459</v>
-      </c>
       <c r="C6" s="91" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B7" s="91" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="H7" s="91" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -4234,11 +4241,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -4251,11 +4258,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -4268,7 +4275,7 @@
     </row>
     <row r="13" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A13" s="96" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B13" s="96"/>
       <c r="C13" s="96"/>
@@ -4294,8 +4301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D57"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="86.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4323,80 +4330,80 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="73" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B4" s="73" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="73" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="73" t="s">
+        <v>373</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="105" t="s">
+        <v>394</v>
+      </c>
+      <c r="B7" s="105" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="B6" s="73" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="99" t="s">
-        <v>399</v>
-      </c>
-      <c r="B7" s="99" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="100" t="s">
-        <v>200</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>383</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="99"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="100"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="51" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -4440,7 +4447,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="52" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B13" s="52" t="s">
         <v>138</v>
@@ -4453,114 +4460,114 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="101" t="s">
-        <v>198</v>
+      <c r="A14" s="102" t="s">
+        <v>193</v>
       </c>
       <c r="B14" s="78" t="s">
-        <v>400</v>
+        <v>466</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="102"/>
+      <c r="A15" s="103"/>
       <c r="B15" s="78" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="102"/>
+      <c r="A16" s="103"/>
       <c r="B16" s="51" t="s">
-        <v>193</v>
+        <v>468</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="102"/>
+      <c r="A17" s="103"/>
       <c r="B17" s="51" t="s">
-        <v>190</v>
+        <v>469</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="102"/>
-      <c r="B18" s="100" t="s">
-        <v>187</v>
+      <c r="A18" s="103"/>
+      <c r="B18" s="99" t="s">
+        <v>470</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="D18" s="100" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+      <c r="D18" s="99" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="102"/>
-      <c r="B19" s="100"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="D19" s="100"/>
+        <v>182</v>
+      </c>
+      <c r="D19" s="99"/>
     </row>
     <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="102"/>
-      <c r="B20" s="100" t="s">
-        <v>183</v>
+      <c r="A20" s="103"/>
+      <c r="B20" s="99" t="s">
+        <v>471</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="D20" s="100" t="s">
         <v>181</v>
       </c>
+      <c r="D20" s="99" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="102"/>
-      <c r="B21" s="100"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="D21" s="100"/>
+        <v>179</v>
+      </c>
+      <c r="D21" s="99"/>
     </row>
     <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="102"/>
-      <c r="B22" s="100" t="s">
-        <v>179</v>
+      <c r="A22" s="103"/>
+      <c r="B22" s="99" t="s">
+        <v>472</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="D22" s="100" t="s">
+      <c r="D22" s="99" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="103"/>
-      <c r="B23" s="100"/>
+      <c r="A23" s="104"/>
+      <c r="B23" s="99"/>
       <c r="C23" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="100"/>
+      <c r="D23" s="99"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="60"/>
@@ -4651,25 +4658,25 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="100" t="s">
+      <c r="A34" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="100" t="s">
+      <c r="B34" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="C34" s="104" t="s">
+      <c r="C34" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="D34" s="105"/>
+      <c r="D34" s="101"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="100"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="105"/>
+      <c r="A35" s="99"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="101"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="99"/>
       <c r="B36" s="51" t="s">
         <v>159</v>
       </c>
@@ -4679,7 +4686,7 @@
       <c r="D36" s="53"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="99"/>
       <c r="B37" s="51" t="s">
         <v>157</v>
       </c>
@@ -4689,7 +4696,7 @@
       <c r="D37" s="53"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="100"/>
+      <c r="A38" s="99"/>
       <c r="B38" s="57" t="s">
         <v>155</v>
       </c>
@@ -4699,43 +4706,43 @@
       <c r="D38" s="53"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="100"/>
+      <c r="A39" s="99"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
       <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="100"/>
+      <c r="A40" s="99"/>
       <c r="B40" s="54" t="s">
         <v>153</v>
       </c>
       <c r="C40" s="77" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D40" s="53"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
+      <c r="A41" s="99"/>
       <c r="B41" s="54" t="s">
         <v>152</v>
       </c>
       <c r="C41" s="77" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D41" s="53"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
+      <c r="A42" s="99"/>
       <c r="B42" s="51" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C42" s="77" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D42" s="53"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="100"/>
+      <c r="A43" s="99"/>
       <c r="B43" s="51" t="s">
         <v>151</v>
       </c>
@@ -4745,7 +4752,7 @@
       <c r="D43" s="53"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="100"/>
+      <c r="A44" s="99"/>
       <c r="B44" s="51" t="s">
         <v>149</v>
       </c>
@@ -4755,13 +4762,13 @@
       <c r="D44" s="53"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="100"/>
+      <c r="A45" s="99"/>
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
       <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="100"/>
+      <c r="A46" s="99"/>
       <c r="B46" s="54" t="s">
         <v>147</v>
       </c>
@@ -4769,11 +4776,11 @@
         <v>146</v>
       </c>
       <c r="D46" s="51" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
+      <c r="A47" s="99"/>
       <c r="B47" s="86" t="s">
         <v>145</v>
       </c>
@@ -4781,11 +4788,11 @@
         <v>144</v>
       </c>
       <c r="D47" s="85" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="100"/>
+      <c r="A48" s="99"/>
       <c r="B48" s="54" t="s">
         <v>143</v>
       </c>
@@ -4795,7 +4802,7 @@
       <c r="D48" s="53"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="100"/>
+      <c r="A49" s="99"/>
       <c r="B49" s="54" t="s">
         <v>141</v>
       </c>
@@ -4819,7 +4826,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="101" t="s">
+      <c r="A53" s="102" t="s">
         <v>135</v>
       </c>
       <c r="B53" s="51" t="s">
@@ -4833,43 +4840,43 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="102"/>
+      <c r="A54" s="103"/>
       <c r="B54" s="85" t="s">
         <v>131</v>
       </c>
       <c r="C54" s="85" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D54" s="85" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="102"/>
+      <c r="A55" s="103"/>
       <c r="B55" s="51" t="s">
         <v>129</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D55" s="51" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="102"/>
+      <c r="A56" s="103"/>
       <c r="B56" s="51" t="s">
         <v>128</v>
       </c>
       <c r="C56" s="51" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D56" s="51" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="103"/>
+      <c r="A57" s="104"/>
       <c r="B57" s="51" t="s">
         <v>126</v>
       </c>
@@ -4882,11 +4889,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A34:A49"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -4897,6 +4899,11 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A34:A49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4931,325 +4938,325 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="116" t="s">
-        <v>377</v>
-      </c>
-      <c r="B2" s="111" t="s">
-        <v>376</v>
+      <c r="A2" s="106" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>371</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D2" s="71" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="113"/>
-      <c r="B3" s="111"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="109"/>
       <c r="C3" s="18" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E3" s="63" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A4" s="107"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+      <c r="A5" s="107"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="107"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="107"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="72" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A4" s="113"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A5" s="113"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>362</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="113"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="72" t="s">
-        <v>375</v>
-      </c>
       <c r="D7" s="70" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E7" s="88" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="113"/>
-      <c r="B8" s="111"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="83" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="84" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E8" s="87" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A9" s="113"/>
-      <c r="B9" s="111" t="s">
-        <v>361</v>
+      <c r="A9" s="107"/>
+      <c r="B9" s="109" t="s">
+        <v>356</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A10" s="113"/>
-      <c r="B10" s="111"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="80" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A11" s="113"/>
-      <c r="B11" s="111"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="19" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="113"/>
-      <c r="B12" s="111"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E12" s="4"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="113"/>
-      <c r="B13" s="111"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="113"/>
-      <c r="B14" s="111"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="19" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A15" s="113"/>
-      <c r="B15" s="111"/>
+      <c r="A15" s="107"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="69" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="113"/>
-      <c r="B16" s="111"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="5" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E16" s="5"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="113"/>
-      <c r="B17" s="111"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="113"/>
-      <c r="B18" s="111"/>
+      <c r="A18" s="107"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="5" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="113"/>
-      <c r="B19" s="111"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="113"/>
-      <c r="B20" s="111"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A21" s="113"/>
-      <c r="B21" s="111"/>
+      <c r="A21" s="107"/>
+      <c r="B21" s="109"/>
       <c r="C21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A22" s="113"/>
-      <c r="B22" s="111" t="s">
-        <v>338</v>
+      <c r="A22" s="107"/>
+      <c r="B22" s="109" t="s">
+        <v>333</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="113"/>
-      <c r="B23" s="111"/>
+      <c r="A23" s="107"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A24" s="113"/>
-      <c r="B24" s="111"/>
+      <c r="A24" s="107"/>
+      <c r="B24" s="109"/>
       <c r="C24" s="5" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A25" s="114"/>
-      <c r="B25" s="111"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="109"/>
       <c r="C25" s="18" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E25" s="63" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -5262,380 +5269,380 @@
     <row r="27" spans="1:5" ht="209.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="47"/>
       <c r="B27" s="47" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="26"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.3">
-      <c r="A28" s="115" t="s">
-        <v>325</v>
-      </c>
-      <c r="B28" s="115" t="s">
-        <v>324</v>
+      <c r="A28" s="110" t="s">
+        <v>320</v>
+      </c>
+      <c r="B28" s="110" t="s">
+        <v>319</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="120" x14ac:dyDescent="0.3">
-      <c r="A29" s="111"/>
-      <c r="B29" s="111"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="109"/>
       <c r="C29" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A30" s="111"/>
-      <c r="B30" s="111"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="109"/>
       <c r="C30" s="5" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="111"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="109" t="s">
-        <v>317</v>
-      </c>
-      <c r="D31" s="110" t="s">
-        <v>316</v>
+      <c r="A31" s="109"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="114" t="s">
+        <v>312</v>
+      </c>
+      <c r="D31" s="115" t="s">
+        <v>311</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A32" s="111"/>
-      <c r="B32" s="111"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="110"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="115"/>
       <c r="E32" s="63" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="111"/>
-      <c r="B33" s="111"/>
+      <c r="A33" s="109"/>
+      <c r="B33" s="109"/>
       <c r="C33" s="5" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="111"/>
-      <c r="B34" s="111"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="109"/>
       <c r="C34" s="5" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="111"/>
-      <c r="B35" s="111"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="109"/>
       <c r="C35" s="5" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="111"/>
-      <c r="B36" s="111"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="109"/>
       <c r="C36" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="120" x14ac:dyDescent="0.3">
-      <c r="A37" s="111"/>
-      <c r="B37" s="111"/>
+      <c r="A37" s="109"/>
+      <c r="B37" s="109"/>
       <c r="C37" s="18" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E37" s="63" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="111"/>
-      <c r="B38" s="111"/>
+      <c r="A38" s="109"/>
+      <c r="B38" s="109"/>
       <c r="C38" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="5" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="111"/>
-      <c r="B39" s="111"/>
+      <c r="A39" s="109"/>
+      <c r="B39" s="109"/>
       <c r="C39" s="5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A40" s="111"/>
-      <c r="B40" s="111"/>
+      <c r="A40" s="109"/>
+      <c r="B40" s="109"/>
       <c r="C40" s="18" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D40" s="64" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E40" s="63" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A41" s="111"/>
-      <c r="B41" s="111"/>
+      <c r="A41" s="109"/>
+      <c r="B41" s="109"/>
       <c r="C41" s="18" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D41" s="64" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E41" s="63" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="111"/>
-      <c r="B42" s="111"/>
+      <c r="A42" s="109"/>
+      <c r="B42" s="109"/>
       <c r="C42" s="5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="111"/>
-      <c r="B43" s="115" t="s">
-        <v>294</v>
+      <c r="A43" s="109"/>
+      <c r="B43" s="110" t="s">
+        <v>289</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="111"/>
-      <c r="B44" s="111"/>
+      <c r="A44" s="109"/>
+      <c r="B44" s="109"/>
       <c r="C44" s="5" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="5" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="111"/>
-      <c r="B45" s="111"/>
+      <c r="A45" s="109"/>
+      <c r="B45" s="109"/>
       <c r="C45" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="5" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="111"/>
-      <c r="B46" s="111"/>
+      <c r="A46" s="109"/>
+      <c r="B46" s="109"/>
       <c r="C46" s="5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D46" s="26"/>
       <c r="E46" s="5" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A47" s="111"/>
-      <c r="B47" s="111"/>
+      <c r="A47" s="109"/>
+      <c r="B47" s="109"/>
       <c r="C47" s="16" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D47" s="37"/>
       <c r="E47" s="17" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="111"/>
-      <c r="B48" s="115" t="s">
-        <v>283</v>
+      <c r="A48" s="109"/>
+      <c r="B48" s="110" t="s">
+        <v>278</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="111"/>
-      <c r="B49" s="111"/>
+      <c r="A49" s="109"/>
+      <c r="B49" s="109"/>
       <c r="C49" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="26"/>
       <c r="E49" s="5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="111"/>
-      <c r="B50" s="111"/>
+      <c r="A50" s="109"/>
+      <c r="B50" s="109"/>
       <c r="C50" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="26"/>
       <c r="E50" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="111"/>
-      <c r="B51" s="111"/>
+      <c r="A51" s="109"/>
+      <c r="B51" s="109"/>
       <c r="C51" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="26"/>
       <c r="E51" s="5" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A52" s="111"/>
-      <c r="B52" s="111"/>
+      <c r="A52" s="109"/>
+      <c r="B52" s="109"/>
       <c r="C52" s="16" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D52" s="37"/>
       <c r="E52" s="17" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="111"/>
-      <c r="B53" s="111" t="s">
-        <v>276</v>
+      <c r="A53" s="109"/>
+      <c r="B53" s="109" t="s">
+        <v>271</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="111"/>
-      <c r="B54" s="111"/>
+      <c r="A54" s="109"/>
+      <c r="B54" s="109"/>
       <c r="C54" s="16" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="111"/>
-      <c r="B55" s="111"/>
+      <c r="A55" s="109"/>
+      <c r="B55" s="109"/>
       <c r="C55" s="5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="111"/>
-      <c r="B56" s="111" t="s">
-        <v>268</v>
+      <c r="A56" s="109"/>
+      <c r="B56" s="109" t="s">
+        <v>263</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="111"/>
-      <c r="B57" s="111"/>
+      <c r="A57" s="109"/>
+      <c r="B57" s="109"/>
       <c r="C57" s="16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="111"/>
-      <c r="B58" s="111"/>
+      <c r="A58" s="109"/>
+      <c r="B58" s="109"/>
       <c r="C58" s="5" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E58" s="5"/>
     </row>
@@ -5647,150 +5654,150 @@
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="105" x14ac:dyDescent="0.3">
-      <c r="A60" s="116" t="s">
-        <v>260</v>
+      <c r="A60" s="106" t="s">
+        <v>255</v>
       </c>
       <c r="B60" s="119" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="117"/>
       <c r="B61" s="120"/>
       <c r="C61" s="18" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E61" s="20"/>
     </row>
     <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A62" s="113"/>
+      <c r="A62" s="107"/>
       <c r="B62" s="118" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A63" s="113"/>
+      <c r="A63" s="107"/>
       <c r="B63" s="118"/>
       <c r="C63" s="5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A64" s="113"/>
+      <c r="A64" s="107"/>
       <c r="B64" s="118"/>
       <c r="C64" s="32" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A65" s="113"/>
+      <c r="A65" s="107"/>
       <c r="B65" s="118"/>
       <c r="C65" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D65" s="37" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A66" s="113"/>
+      <c r="A66" s="107"/>
       <c r="B66" s="118"/>
       <c r="C66" s="32" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A67" s="113"/>
+      <c r="A67" s="107"/>
       <c r="B67" s="118"/>
       <c r="C67" s="5" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A68" s="113"/>
+      <c r="A68" s="107"/>
       <c r="B68" s="118"/>
       <c r="C68" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A69" s="113"/>
+      <c r="A69" s="107"/>
       <c r="B69" s="118"/>
       <c r="C69" s="32" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="75" x14ac:dyDescent="0.3">
-      <c r="A70" s="114"/>
+      <c r="A70" s="108"/>
       <c r="B70" s="118"/>
       <c r="C70" s="31" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E70" s="36" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -5808,140 +5815,133 @@
       <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A73" s="106" t="s">
-        <v>235</v>
-      </c>
-      <c r="B73" s="112" t="s">
-        <v>234</v>
+      <c r="A73" s="111" t="s">
+        <v>230</v>
+      </c>
+      <c r="B73" s="116" t="s">
+        <v>229</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="107"/>
-      <c r="B74" s="113"/>
+      <c r="A74" s="112"/>
+      <c r="B74" s="107"/>
       <c r="C74" s="32" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D74" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="E74" s="32"/>
+    </row>
+    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+      <c r="A75" s="112"/>
+      <c r="B75" s="107"/>
+      <c r="C75" s="32" t="s">
         <v>228</v>
-      </c>
-      <c r="E74" s="32"/>
-    </row>
-    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A75" s="107"/>
-      <c r="B75" s="113"/>
-      <c r="C75" s="32" t="s">
-        <v>233</v>
       </c>
       <c r="D75" s="33"/>
       <c r="E75" s="34" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A76" s="107"/>
-      <c r="B76" s="113"/>
+      <c r="A76" s="112"/>
+      <c r="B76" s="107"/>
       <c r="C76" s="32" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A77" s="107"/>
-      <c r="B77" s="113"/>
+      <c r="A77" s="112"/>
+      <c r="B77" s="107"/>
       <c r="C77" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="107"/>
-      <c r="B78" s="113"/>
+      <c r="A78" s="112"/>
+      <c r="B78" s="107"/>
       <c r="C78" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E78" s="5"/>
     </row>
     <row r="79" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A79" s="107"/>
-      <c r="B79" s="113"/>
+      <c r="A79" s="112"/>
+      <c r="B79" s="107"/>
       <c r="C79" s="31" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E79" s="34" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A80" s="107"/>
-      <c r="B80" s="113"/>
+      <c r="A80" s="112"/>
+      <c r="B80" s="107"/>
       <c r="C80" s="32" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D80" s="33" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="E80" s="34" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="107"/>
-      <c r="B81" s="113"/>
+      <c r="A81" s="112"/>
+      <c r="B81" s="107"/>
       <c r="C81" s="31" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E81" s="32"/>
     </row>
     <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A82" s="108"/>
-      <c r="B82" s="114"/>
+      <c r="A82" s="113"/>
+      <c r="B82" s="108"/>
       <c r="C82" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B28:B42"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="A28:A58"/>
     <mergeCell ref="A73:A82"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
@@ -5952,6 +5952,13 @@
     <mergeCell ref="A60:A70"/>
     <mergeCell ref="B62:B70"/>
     <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B28:B42"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="A28:A58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5987,7 +5994,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="123" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="48" t="s">
@@ -5998,7 +6005,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="121"/>
+      <c r="A3" s="123"/>
       <c r="B3" s="48" t="s">
         <v>21</v>
       </c>
@@ -6007,7 +6014,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="123" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="48" t="s">
@@ -6018,7 +6025,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="121"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="48" t="s">
         <v>27</v>
       </c>
@@ -6027,7 +6034,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="121"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="48" t="s">
         <v>29</v>
       </c>
@@ -6036,7 +6043,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="121"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="48" t="s">
         <v>24</v>
       </c>
@@ -6045,7 +6052,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="123" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -6056,7 +6063,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="121"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="48" t="s">
         <v>36</v>
       </c>
@@ -6065,7 +6072,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="121"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="48" t="s">
         <v>33</v>
       </c>
@@ -6074,25 +6081,25 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="121" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="121" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="123"/>
+      <c r="A12" s="122"/>
       <c r="B12" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="123"/>
+      <c r="C12" s="122"/>
     </row>
     <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="123" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="48" t="s">
@@ -6103,7 +6110,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="121"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="48" t="s">
         <v>46</v>
       </c>
@@ -6112,7 +6119,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="121"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="48" t="s">
         <v>48</v>
       </c>
@@ -6121,7 +6128,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="121"/>
+      <c r="A16" s="123"/>
       <c r="B16" s="48" t="s">
         <v>50</v>
       </c>
@@ -6130,7 +6137,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="121"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="48" t="s">
         <v>43</v>
       </c>
@@ -6139,7 +6146,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="121" t="s">
+      <c r="A18" s="123" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="48" t="s">
@@ -6150,7 +6157,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="121"/>
+      <c r="A19" s="123"/>
       <c r="B19" s="48" t="s">
         <v>44</v>
       </c>
@@ -6159,7 +6166,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="121"/>
+      <c r="A20" s="123"/>
       <c r="B20" s="48" t="s">
         <v>46</v>
       </c>
@@ -6168,7 +6175,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="121"/>
+      <c r="A21" s="123"/>
       <c r="B21" s="48" t="s">
         <v>48</v>
       </c>
@@ -6177,7 +6184,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="121"/>
+      <c r="A22" s="123"/>
       <c r="B22" s="48" t="s">
         <v>54</v>
       </c>
@@ -6186,7 +6193,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="121" t="s">
+      <c r="A23" s="123" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="48" t="s">
@@ -6197,42 +6204,42 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="121"/>
+      <c r="A24" s="123"/>
       <c r="B24" s="48" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="22"/>
     </row>
     <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="121"/>
+      <c r="A25" s="123"/>
       <c r="B25" s="48" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="22"/>
     </row>
     <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="121"/>
+      <c r="A26" s="123"/>
       <c r="B26" s="48" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="121"/>
+      <c r="A27" s="123"/>
       <c r="B27" s="48" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="22"/>
     </row>
     <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="121"/>
+      <c r="A28" s="123"/>
       <c r="B28" s="48" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="121" t="s">
+      <c r="A29" s="123" t="s">
         <v>63</v>
       </c>
       <c r="B29" s="48" t="s">
@@ -6241,35 +6248,35 @@
       <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="121"/>
+      <c r="A30" s="123"/>
       <c r="B30" s="48" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="121"/>
+      <c r="A31" s="123"/>
       <c r="B31" s="48" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="121"/>
+      <c r="A32" s="123"/>
       <c r="B32" s="48" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="22"/>
     </row>
     <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="121"/>
+      <c r="A33" s="123"/>
       <c r="B33" s="48" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="22"/>
     </row>
     <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="121"/>
+      <c r="A34" s="123"/>
       <c r="B34" s="48" t="s">
         <v>43</v>
       </c>
@@ -6280,14 +6287,14 @@
         <v>64</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C35" s="48" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="121" t="s">
+      <c r="A36" s="123" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="48" t="s">
@@ -6298,7 +6305,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="121"/>
+      <c r="A37" s="123"/>
       <c r="B37" s="48" t="s">
         <v>72</v>
       </c>
@@ -6307,7 +6314,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="121"/>
+      <c r="A38" s="123"/>
       <c r="B38" s="48" t="s">
         <v>73</v>
       </c>
@@ -6317,16 +6324,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
